--- a/Config/scriptPostExecutionTestIssueKey_check.xlsx
+++ b/Config/scriptPostExecutionTestIssueKey_check.xlsx
@@ -1,80 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87EC663-C37E-48EA-92E2-A08D5C0BCE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="URL" sheetId="1" r:id="rId1"/>
+    <sheet name="URL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Result" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>Execution ID</t>
-  </si>
-  <si>
-    <t>Test Issue ID</t>
-  </si>
-  <si>
-    <t>AFJX-11576</t>
-  </si>
-  <si>
-    <t>AFJX-11010</t>
-  </si>
-  <si>
-    <t>AFJX-10909</t>
-  </si>
-  <si>
-    <t>AFJX-10915</t>
-  </si>
-  <si>
-    <t>AFJX-10910</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,24 +67,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,60 +411,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col width="22.08984375" customWidth="1" min="1" max="1"/>
+    <col width="16.54296875" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execution ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Test Issue ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AFJX-11576</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AFJX-11010</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AFJX-11576</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AFJX-10909</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AFJX-11576</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AFJX-10915</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JCVZ-1050</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JCVZ-1030</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Evidence</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Step State</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/secure/XrayExecuteTest!default.jspa?testExecIssueKey=AFJX-11576&amp;testIssueKey=AFJX-11010</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/secure/XrayExecuteTest!default.jspa?testExecIssueKey=AFJX-11576&amp;testIssueKey=AFJX-10909</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Update for Step 3,</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Update for Step 4,</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/secure/XrayExecuteTest!default.jspa?testExecIssueKey=AFJX-11576&amp;testIssueKey=AFJX-10915</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Update for Step 1,2,3,4,5,6,7,</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Update for Step 4,</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/secure/XrayExecuteTest!default.jspa?testExecIssueKey=JCVZ-1050&amp;testIssueKey=JCVZ-1030</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Update for Step 1,2,3,4,5,6,7,8,9,10,</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Update for Step 1,2,3,4,5,6,7,8,9,10,</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Update for Step 1,2,3,4,5,6,7,8,9,10,</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Config/scriptPostExecutionTestIssueKey_check.xlsx
+++ b/Config/scriptPostExecutionTestIssueKey_check.xlsx
@@ -1,57 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1745814C-75D8-4910-8D93-29FE8FA5068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="URL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Result" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="URL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Execution ID</t>
+  </si>
+  <si>
+    <t>Test Issue ID</t>
+  </si>
+  <si>
+    <t>AFJX-11576</t>
+  </si>
+  <si>
+    <t>AFJX-11010</t>
+  </si>
+  <si>
+    <t>AFJX-10909</t>
+  </si>
+  <si>
+    <t>AFJX-10915</t>
+  </si>
+  <si>
+    <t>JCVZ-1050</t>
+  </si>
+  <si>
+    <t>JCVZ-1030</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,85 +101,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,213 +384,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="22.08984375" customWidth="1" min="1" max="1"/>
-    <col width="16.54296875" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Execution ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Test Issue ID</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AFJX-11576</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AFJX-11010</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AFJX-11576</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AFJX-10909</t>
-        </is>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AFJX-11576</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AFJX-10915</t>
-        </is>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>JCVZ-1050</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>JCVZ-1030</t>
-        </is>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Actual Result</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Evidence</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Step State</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://jira.jnj.com/secure/XrayExecuteTest!default.jspa?testExecIssueKey=AFJX-11576&amp;testIssueKey=AFJX-11010</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://jira.jnj.com/secure/XrayExecuteTest!default.jspa?testExecIssueKey=AFJX-11576&amp;testIssueKey=AFJX-10909</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Update for Step 3,</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Update for Step 4,</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://jira.jnj.com/secure/XrayExecuteTest!default.jspa?testExecIssueKey=AFJX-11576&amp;testIssueKey=AFJX-10915</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Update for Step 1,2,3,4,5,6,7,</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Update for Step 4,</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://jira.jnj.com/secure/XrayExecuteTest!default.jspa?testExecIssueKey=JCVZ-1050&amp;testIssueKey=JCVZ-1030</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Update for Step 1,2,3,4,5,6,7,8,9,10,</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Update for Step 1,2,3,4,5,6,7,8,9,10,</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Update for Step 1,2,3,4,5,6,7,8,9,10,</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Config/scriptPostExecutionTestIssueKey_check.xlsx
+++ b/Config/scriptPostExecutionTestIssueKey_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1745814C-75D8-4910-8D93-29FE8FA5068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1EDD07-2C0E-45C9-8516-08D122999714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="855" windowWidth="19875" windowHeight="8715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -33,30 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Execution ID</t>
   </si>
   <si>
     <t>Test Issue ID</t>
-  </si>
-  <si>
-    <t>AFJX-11576</t>
-  </si>
-  <si>
-    <t>AFJX-11010</t>
-  </si>
-  <si>
-    <t>AFJX-10909</t>
-  </si>
-  <si>
-    <t>AFJX-10915</t>
-  </si>
-  <si>
-    <t>JCVZ-1050</t>
-  </si>
-  <si>
-    <t>JCVZ-1030</t>
   </si>
 </sst>
 </file>
@@ -72,9 +54,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,16 +77,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,19 +362,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,39 +382,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>